--- a/input/NMNH_reviewed1.xlsx
+++ b/input/NMNH_reviewed1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2FC6E4FA-ED30-44A0-A6F4-FA35C47D2D8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54757C67-0F4D-4078-81CD-9651E45CE655}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{2FC6E4FA-ED30-44A0-A6F4-FA35C47D2D8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B89FA235-9339-44D0-BE4D-DCFCB18BD796}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4945" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="391">
   <si>
     <t>catalog number</t>
   </si>
@@ -1181,6 +1181,18 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>Chiastopsylla mulleri group</t>
+  </si>
+  <si>
+    <t>http://n2t.net/ark:/65665/3d29dd36b-845f-4cca-af91-cef6720dc3b6</t>
+  </si>
+  <si>
+    <t>mulleri</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -2022,9 +2034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM81"/>
+  <dimension ref="A1:CF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="Z82" sqref="Z82:CF82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -17551,7 +17565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:84" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -17742,6 +17756,185 @@
         <v>64</v>
       </c>
       <c r="BM81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:84" x14ac:dyDescent="0.35">
+      <c r="Z82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX82">
+        <v>13</v>
+      </c>
+      <c r="AY82" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG82" s="1">
+        <v>42688.681250000001</v>
+      </c>
+      <c r="BH82" t="s">
+        <v>388</v>
+      </c>
+      <c r="BI82" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ82">
+        <v>761</v>
+      </c>
+      <c r="BK82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BT82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BY82" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ82" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA82" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB82" t="s">
+        <v>64</v>
+      </c>
+      <c r="CC82" t="s">
+        <v>389</v>
+      </c>
+      <c r="CD82" t="s">
+        <v>390</v>
+      </c>
+      <c r="CE82" t="s">
+        <v>64</v>
+      </c>
+      <c r="CF82" t="s">
         <v>64</v>
       </c>
     </row>
